--- a/core/src/test/resources/yo/dbunitcli/application/settings/generate/with_metadata/merge_table.xlsx
+++ b/core/src/test/resources/yo/dbunitcli/application/settings/generate/with_metadata/merge_table.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="merge" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="distinct" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -55,8 +56,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="A2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="param.dataSet.get('dataType').rows" var="row" varIndex="index" lastCell="A2")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -297,7 +334,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -345,4 +382,49 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>